--- a/data/acs_variables_initial_1.4.xlsx
+++ b/data/acs_variables_initial_1.4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\US_Geodemographic\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B1515D1-8A59-4562-A51E-57AD9E6D8FDA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E90183C-1AE0-4814-96EF-D5660A227B8C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="26790" yWindow="4590" windowWidth="22490" windowHeight="15310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="acs_variables_initial" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4154" uniqueCount="1595">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4112" uniqueCount="1594">
   <si>
     <t>Table ID</t>
   </si>
@@ -4021,9 +4021,6 @@
     <t>Male_15_to_17_years</t>
   </si>
   <si>
-    <t>18_and_19_years</t>
-  </si>
-  <si>
     <t>Male_20_years</t>
   </si>
   <si>
@@ -4156,9 +4153,6 @@
     <t>American_Indian_and_Alaska_Native_alone</t>
   </si>
   <si>
-    <t>Asian_alone</t>
-  </si>
-  <si>
     <t>ENVIRONMENT</t>
   </si>
   <si>
@@ -4444,18 +4438,12 @@
     <t>Digital devices</t>
   </si>
   <si>
-    <t>Desktop_or_laptop</t>
-  </si>
-  <si>
     <t>Desktop_or_laptop_with_no_other_type_of_computing_device</t>
   </si>
   <si>
     <t>Smartphone_with_no_other_type_of_computing_device</t>
   </si>
   <si>
-    <t>Tablet_or_other_portable_wireless_computer</t>
-  </si>
-  <si>
     <t>Tablet_or_other_portable_wireless_computer_with_no_other_type_of_computing_device</t>
   </si>
   <si>
@@ -4468,9 +4456,6 @@
     <t>Dial_up_with_no_other_type_of_Internet_subscription</t>
   </si>
   <si>
-    <t>Broadband_of_any_type</t>
-  </si>
-  <si>
     <t>Cellular_data_plan_with_no_other_type_of_Internet_subscription</t>
   </si>
   <si>
@@ -4540,9 +4525,6 @@
     <t>12th_grade_no_diploma</t>
   </si>
   <si>
-    <t>Regular_high_school_diploma</t>
-  </si>
-  <si>
     <t>GED_or_alternative_credential</t>
   </si>
   <si>
@@ -4570,12 +4552,6 @@
     <t>Marriage</t>
   </si>
   <si>
-    <t>Never_married</t>
-  </si>
-  <si>
-    <t>Married_spouse_present</t>
-  </si>
-  <si>
     <t>Population_of_two_races</t>
   </si>
   <si>
@@ -4663,15 +4639,6 @@
     <t>Language</t>
   </si>
   <si>
-    <t>Speak_only_English</t>
-  </si>
-  <si>
-    <t>Speak_Spanish</t>
-  </si>
-  <si>
-    <t>Speak_other_Indo-European_languages</t>
-  </si>
-  <si>
     <t>Speak_Asian_and_Pacific_Island_languages</t>
   </si>
   <si>
@@ -4832,6 +4799,36 @@
   </si>
   <si>
     <t>Rent_dollar_3,500_or_more</t>
+  </si>
+  <si>
+    <t>Never_married_male</t>
+  </si>
+  <si>
+    <t>Separated_male</t>
+  </si>
+  <si>
+    <t>Never_married_female</t>
+  </si>
+  <si>
+    <t>Separated_female</t>
+  </si>
+  <si>
+    <t>Widowed_male</t>
+  </si>
+  <si>
+    <t>Divorced_male</t>
+  </si>
+  <si>
+    <t>Widowed_female</t>
+  </si>
+  <si>
+    <t>Divorced_female</t>
+  </si>
+  <si>
+    <t>Speak_other_Indo_European_languages</t>
+  </si>
+  <si>
+    <t>M_F_18_and_19_years</t>
   </si>
 </sst>
 </file>
@@ -5692,9 +5689,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N852"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A266" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L287" sqref="L287"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6029,7 +6026,7 @@
         <v>1319</v>
       </c>
       <c r="L10" t="s">
-        <v>1324</v>
+        <v>1593</v>
       </c>
       <c r="M10">
         <v>1</v>
@@ -6070,7 +6067,7 @@
         <v>1319</v>
       </c>
       <c r="L11" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.35">
@@ -6108,7 +6105,7 @@
         <v>1319</v>
       </c>
       <c r="L12" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.35">
@@ -6146,7 +6143,7 @@
         <v>1319</v>
       </c>
       <c r="L13" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.35">
@@ -6184,7 +6181,7 @@
         <v>1319</v>
       </c>
       <c r="L14" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.35">
@@ -6222,7 +6219,7 @@
         <v>1319</v>
       </c>
       <c r="L15" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.35">
@@ -6260,7 +6257,7 @@
         <v>1319</v>
       </c>
       <c r="L16" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.35">
@@ -6298,7 +6295,7 @@
         <v>1319</v>
       </c>
       <c r="L17" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.35">
@@ -6336,7 +6333,7 @@
         <v>1319</v>
       </c>
       <c r="L18" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.35">
@@ -6374,7 +6371,7 @@
         <v>1319</v>
       </c>
       <c r="L19" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.35">
@@ -6412,7 +6409,7 @@
         <v>1319</v>
       </c>
       <c r="L20" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.35">
@@ -6450,7 +6447,7 @@
         <v>1319</v>
       </c>
       <c r="L21" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.35">
@@ -6488,7 +6485,7 @@
         <v>1319</v>
       </c>
       <c r="L22" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.35">
@@ -6526,7 +6523,7 @@
         <v>1319</v>
       </c>
       <c r="L23" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.35">
@@ -6564,7 +6561,7 @@
         <v>1319</v>
       </c>
       <c r="L24" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.35">
@@ -6602,7 +6599,7 @@
         <v>1319</v>
       </c>
       <c r="L25" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.35">
@@ -6640,7 +6637,7 @@
         <v>1319</v>
       </c>
       <c r="L26" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.35">
@@ -6678,7 +6675,7 @@
         <v>1319</v>
       </c>
       <c r="L27" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.35">
@@ -6716,7 +6713,7 @@
         <v>1319</v>
       </c>
       <c r="L28" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.35">
@@ -6783,7 +6780,7 @@
         <v>1319</v>
       </c>
       <c r="L30" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.35">
@@ -6821,7 +6818,7 @@
         <v>1319</v>
       </c>
       <c r="L31" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.35">
@@ -6859,7 +6856,7 @@
         <v>1319</v>
       </c>
       <c r="L32" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.35">
@@ -6897,7 +6894,7 @@
         <v>1319</v>
       </c>
       <c r="L33" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.35">
@@ -6935,7 +6932,7 @@
         <v>1319</v>
       </c>
       <c r="L34" t="s">
-        <v>1324</v>
+        <v>1593</v>
       </c>
       <c r="M34">
         <v>1</v>
@@ -6976,7 +6973,7 @@
         <v>1319</v>
       </c>
       <c r="L35" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.35">
@@ -7014,7 +7011,7 @@
         <v>1319</v>
       </c>
       <c r="L36" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.35">
@@ -7052,7 +7049,7 @@
         <v>1319</v>
       </c>
       <c r="L37" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.35">
@@ -7090,7 +7087,7 @@
         <v>1319</v>
       </c>
       <c r="L38" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.35">
@@ -7128,7 +7125,7 @@
         <v>1319</v>
       </c>
       <c r="L39" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.35">
@@ -7166,7 +7163,7 @@
         <v>1319</v>
       </c>
       <c r="L40" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.35">
@@ -7204,7 +7201,7 @@
         <v>1319</v>
       </c>
       <c r="L41" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.35">
@@ -7242,7 +7239,7 @@
         <v>1319</v>
       </c>
       <c r="L42" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.35">
@@ -7280,7 +7277,7 @@
         <v>1319</v>
       </c>
       <c r="L43" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.35">
@@ -7318,7 +7315,7 @@
         <v>1319</v>
       </c>
       <c r="L44" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.35">
@@ -7356,7 +7353,7 @@
         <v>1319</v>
       </c>
       <c r="L45" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.35">
@@ -7394,7 +7391,7 @@
         <v>1319</v>
       </c>
       <c r="L46" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.35">
@@ -7432,7 +7429,7 @@
         <v>1319</v>
       </c>
       <c r="L47" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.35">
@@ -7470,7 +7467,7 @@
         <v>1319</v>
       </c>
       <c r="L48" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.35">
@@ -7508,7 +7505,7 @@
         <v>1319</v>
       </c>
       <c r="L49" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.35">
@@ -7546,7 +7543,7 @@
         <v>1319</v>
       </c>
       <c r="L50" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.35">
@@ -7584,7 +7581,7 @@
         <v>1319</v>
       </c>
       <c r="L51" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.35">
@@ -7622,7 +7619,7 @@
         <v>1319</v>
       </c>
       <c r="L52" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.35">
@@ -7714,10 +7711,10 @@
         <v>1318</v>
       </c>
       <c r="K56" t="s">
+        <v>1364</v>
+      </c>
+      <c r="L56" t="s">
         <v>1365</v>
-      </c>
-      <c r="L56" t="s">
-        <v>1366</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.35">
@@ -7752,10 +7749,10 @@
         <v>1318</v>
       </c>
       <c r="K57" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="L57" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.35">
@@ -7790,10 +7787,10 @@
         <v>1318</v>
       </c>
       <c r="K58" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="L58" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.35">
@@ -7822,16 +7819,7 @@
         <v>1</v>
       </c>
       <c r="I59">
-        <v>1</v>
-      </c>
-      <c r="J59" t="s">
-        <v>1318</v>
-      </c>
-      <c r="K59" t="s">
-        <v>1365</v>
-      </c>
-      <c r="L59" t="s">
-        <v>1369</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.35">
@@ -8325,10 +8313,10 @@
         <v>1318</v>
       </c>
       <c r="K78" s="1" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="L78" s="1" t="s">
-        <v>1509</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="79" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -8493,10 +8481,10 @@
         <v>1318</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="L84" s="1" t="s">
-        <v>1511</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="85" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -9280,10 +9268,10 @@
         <v>1318</v>
       </c>
       <c r="K113" s="1" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="L113" s="1" t="s">
-        <v>1510</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.35">
@@ -9401,13 +9389,13 @@
         <v>1</v>
       </c>
       <c r="J118" t="s">
+        <v>1369</v>
+      </c>
+      <c r="K118" t="s">
+        <v>1370</v>
+      </c>
+      <c r="L118" t="s">
         <v>1371</v>
-      </c>
-      <c r="K118" t="s">
-        <v>1372</v>
-      </c>
-      <c r="L118" t="s">
-        <v>1373</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.35">
@@ -9873,13 +9861,13 @@
         <v>1</v>
       </c>
       <c r="J135" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="K135" t="s">
+        <v>1370</v>
+      </c>
+      <c r="L135" t="s">
         <v>1372</v>
-      </c>
-      <c r="L135" t="s">
-        <v>1374</v>
       </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.35">
@@ -11241,13 +11229,13 @@
         <v>1</v>
       </c>
       <c r="J186" s="1" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="K186" s="1" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
       <c r="L186" s="1" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="187" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -11667,13 +11655,13 @@
         <v>1</v>
       </c>
       <c r="J201" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="K201" t="s">
-        <v>1512</v>
+        <v>1504</v>
       </c>
       <c r="L201" t="s">
-        <v>1513</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="202" spans="1:12" x14ac:dyDescent="0.35">
@@ -11705,13 +11693,13 @@
         <v>1</v>
       </c>
       <c r="J202" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="K202" t="s">
-        <v>1512</v>
+        <v>1504</v>
       </c>
       <c r="L202" t="s">
-        <v>1514</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="203" spans="1:12" x14ac:dyDescent="0.35">
@@ -11743,13 +11731,13 @@
         <v>1</v>
       </c>
       <c r="J203" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="K203" t="s">
-        <v>1512</v>
+        <v>1504</v>
       </c>
       <c r="L203" t="s">
-        <v>1515</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="204" spans="1:12" x14ac:dyDescent="0.35">
@@ -11781,13 +11769,13 @@
         <v>1</v>
       </c>
       <c r="J204" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="K204" t="s">
-        <v>1512</v>
+        <v>1504</v>
       </c>
       <c r="L204" t="s">
-        <v>1516</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="205" spans="1:12" x14ac:dyDescent="0.35">
@@ -11819,13 +11807,13 @@
         <v>1</v>
       </c>
       <c r="J205" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="K205" t="s">
-        <v>1512</v>
+        <v>1504</v>
       </c>
       <c r="L205" t="s">
-        <v>1517</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="206" spans="1:12" x14ac:dyDescent="0.35">
@@ -11857,13 +11845,13 @@
         <v>1</v>
       </c>
       <c r="J206" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="K206" t="s">
-        <v>1512</v>
+        <v>1504</v>
       </c>
       <c r="L206" t="s">
-        <v>1518</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="207" spans="1:12" x14ac:dyDescent="0.35">
@@ -11895,13 +11883,13 @@
         <v>1</v>
       </c>
       <c r="J207" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="K207" t="s">
-        <v>1512</v>
+        <v>1504</v>
       </c>
       <c r="L207" t="s">
-        <v>1519</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="208" spans="1:12" x14ac:dyDescent="0.35">
@@ -11933,13 +11921,13 @@
         <v>1</v>
       </c>
       <c r="J208" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="K208" t="s">
+        <v>1504</v>
+      </c>
+      <c r="L208" t="s">
         <v>1512</v>
-      </c>
-      <c r="L208" t="s">
-        <v>1520</v>
       </c>
     </row>
     <row r="209" spans="1:12" x14ac:dyDescent="0.35">
@@ -11971,13 +11959,13 @@
         <v>1</v>
       </c>
       <c r="J209" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="K209" t="s">
-        <v>1512</v>
+        <v>1504</v>
       </c>
       <c r="L209" t="s">
-        <v>1521</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="210" spans="1:12" x14ac:dyDescent="0.35">
@@ -12009,13 +11997,13 @@
         <v>1</v>
       </c>
       <c r="J210" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="K210" t="s">
-        <v>1512</v>
+        <v>1504</v>
       </c>
       <c r="L210" t="s">
-        <v>1522</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="211" spans="1:12" x14ac:dyDescent="0.35">
@@ -12047,13 +12035,13 @@
         <v>1</v>
       </c>
       <c r="J211" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="K211" t="s">
-        <v>1512</v>
+        <v>1504</v>
       </c>
       <c r="L211" t="s">
-        <v>1523</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="212" spans="1:12" x14ac:dyDescent="0.35">
@@ -12085,13 +12073,13 @@
         <v>1</v>
       </c>
       <c r="J212" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="K212" t="s">
-        <v>1512</v>
+        <v>1504</v>
       </c>
       <c r="L212" t="s">
-        <v>1524</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="213" spans="1:12" x14ac:dyDescent="0.35">
@@ -12123,13 +12111,13 @@
         <v>1</v>
       </c>
       <c r="J213" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="K213" t="s">
-        <v>1512</v>
+        <v>1504</v>
       </c>
       <c r="L213" t="s">
-        <v>1525</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="214" spans="1:12" x14ac:dyDescent="0.35">
@@ -12161,13 +12149,13 @@
         <v>1</v>
       </c>
       <c r="J214" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="K214" t="s">
-        <v>1512</v>
+        <v>1504</v>
       </c>
       <c r="L214" t="s">
-        <v>1526</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="215" spans="1:12" x14ac:dyDescent="0.35">
@@ -12256,13 +12244,13 @@
         <v>1</v>
       </c>
       <c r="J218" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="K218" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="L218" t="s">
-        <v>1569</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="219" spans="1:12" x14ac:dyDescent="0.35">
@@ -12294,13 +12282,13 @@
         <v>1</v>
       </c>
       <c r="J219" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="K219" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="L219" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="220" spans="1:12" x14ac:dyDescent="0.35">
@@ -12332,13 +12320,13 @@
         <v>1</v>
       </c>
       <c r="J220" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="K220" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="L220" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="221" spans="1:12" x14ac:dyDescent="0.35">
@@ -12370,13 +12358,13 @@
         <v>1</v>
       </c>
       <c r="J221" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="K221" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="L221" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="222" spans="1:12" x14ac:dyDescent="0.35">
@@ -12408,13 +12396,13 @@
         <v>1</v>
       </c>
       <c r="J222" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="K222" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="L222" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="223" spans="1:12" x14ac:dyDescent="0.35">
@@ -12446,13 +12434,13 @@
         <v>1</v>
       </c>
       <c r="J223" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="K223" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="L223" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="224" spans="1:12" x14ac:dyDescent="0.35">
@@ -12484,13 +12472,13 @@
         <v>1</v>
       </c>
       <c r="J224" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="K224" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="L224" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="225" spans="1:12" x14ac:dyDescent="0.35">
@@ -12522,13 +12510,13 @@
         <v>1</v>
       </c>
       <c r="J225" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="K225" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="L225" t="s">
-        <v>1383</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="226" spans="1:12" x14ac:dyDescent="0.35">
@@ -12560,13 +12548,13 @@
         <v>1</v>
       </c>
       <c r="J226" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="K226" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="L226" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="227" spans="1:12" x14ac:dyDescent="0.35">
@@ -12598,13 +12586,13 @@
         <v>1</v>
       </c>
       <c r="J227" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="K227" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="L227" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="228" spans="1:12" x14ac:dyDescent="0.35">
@@ -12636,13 +12624,13 @@
         <v>1</v>
       </c>
       <c r="J228" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="K228" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="L228" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="229" spans="1:12" x14ac:dyDescent="0.35">
@@ -12674,13 +12662,13 @@
         <v>1</v>
       </c>
       <c r="J229" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="K229" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="L229" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="230" spans="1:12" x14ac:dyDescent="0.35">
@@ -12859,10 +12847,10 @@
         <v>1318</v>
       </c>
       <c r="K236" t="s">
-        <v>1535</v>
+        <v>1527</v>
       </c>
       <c r="L236" t="s">
-        <v>1527</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="237" spans="1:12" x14ac:dyDescent="0.35">
@@ -12955,10 +12943,10 @@
         <v>1318</v>
       </c>
       <c r="K239" t="s">
-        <v>1535</v>
+        <v>1527</v>
       </c>
       <c r="L239" t="s">
-        <v>1528</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="240" spans="1:12" x14ac:dyDescent="0.35">
@@ -13051,10 +13039,10 @@
         <v>1318</v>
       </c>
       <c r="K242" t="s">
-        <v>1535</v>
+        <v>1527</v>
       </c>
       <c r="L242" t="s">
-        <v>1529</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="243" spans="1:12" x14ac:dyDescent="0.35">
@@ -13115,10 +13103,10 @@
         <v>0</v>
       </c>
       <c r="K244" t="s">
-        <v>1535</v>
+        <v>1527</v>
       </c>
       <c r="L244" t="s">
-        <v>1530</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="245" spans="1:12" x14ac:dyDescent="0.35">
@@ -13182,10 +13170,10 @@
         <v>1318</v>
       </c>
       <c r="K246" t="s">
-        <v>1531</v>
+        <v>1523</v>
       </c>
       <c r="L246" t="s">
-        <v>1532</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="247" spans="1:12" x14ac:dyDescent="0.35">
@@ -13220,10 +13208,10 @@
         <v>1318</v>
       </c>
       <c r="K247" t="s">
-        <v>1531</v>
+        <v>1523</v>
       </c>
       <c r="L247" t="s">
-        <v>1533</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="248" spans="1:12" x14ac:dyDescent="0.35">
@@ -13258,7 +13246,7 @@
         <v>1318</v>
       </c>
       <c r="K248" t="s">
-        <v>1531</v>
+        <v>1523</v>
       </c>
       <c r="L248" t="s">
         <v>387</v>
@@ -13296,7 +13284,7 @@
         <v>1318</v>
       </c>
       <c r="K249" t="s">
-        <v>1531</v>
+        <v>1523</v>
       </c>
       <c r="L249" t="s">
         <v>389</v>
@@ -13537,10 +13525,10 @@
         <v>1318</v>
       </c>
       <c r="K257" t="s">
-        <v>1536</v>
+        <v>1528</v>
       </c>
       <c r="L257" t="s">
-        <v>1534</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="258" spans="1:14" x14ac:dyDescent="0.35">
@@ -13661,10 +13649,10 @@
         <v>1318</v>
       </c>
       <c r="K262" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
       <c r="L262" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="263" spans="1:14" x14ac:dyDescent="0.35">
@@ -13898,7 +13886,7 @@
         <v>0</v>
       </c>
       <c r="N271" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="272" spans="1:14" x14ac:dyDescent="0.35">
@@ -13930,7 +13918,7 @@
         <v>0</v>
       </c>
       <c r="N272" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="273" spans="1:14" x14ac:dyDescent="0.35">
@@ -13962,7 +13950,7 @@
         <v>0</v>
       </c>
       <c r="N273" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="274" spans="1:14" x14ac:dyDescent="0.35">
@@ -13994,7 +13982,7 @@
         <v>0</v>
       </c>
       <c r="N274" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="275" spans="1:14" x14ac:dyDescent="0.35">
@@ -14026,7 +14014,7 @@
         <v>0</v>
       </c>
       <c r="N275" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="276" spans="1:14" x14ac:dyDescent="0.35">
@@ -14058,7 +14046,7 @@
         <v>0</v>
       </c>
       <c r="N276" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="277" spans="1:14" x14ac:dyDescent="0.35">
@@ -14090,7 +14078,7 @@
         <v>0</v>
       </c>
       <c r="N277" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="278" spans="1:14" x14ac:dyDescent="0.35">
@@ -14122,7 +14110,7 @@
         <v>0</v>
       </c>
       <c r="N278" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="279" spans="1:14" x14ac:dyDescent="0.35">
@@ -14154,7 +14142,7 @@
         <v>0</v>
       </c>
       <c r="N279" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="280" spans="1:14" x14ac:dyDescent="0.35">
@@ -14186,7 +14174,7 @@
         <v>0</v>
       </c>
       <c r="N280" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="281" spans="1:14" x14ac:dyDescent="0.35">
@@ -14218,7 +14206,7 @@
         <v>0</v>
       </c>
       <c r="N281" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="282" spans="1:14" x14ac:dyDescent="0.35">
@@ -14250,7 +14238,7 @@
         <v>0</v>
       </c>
       <c r="N282" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="283" spans="1:14" x14ac:dyDescent="0.35">
@@ -14339,7 +14327,7 @@
         <v>0</v>
       </c>
       <c r="N286" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="287" spans="1:14" x14ac:dyDescent="0.35">
@@ -14507,10 +14495,10 @@
         <v>1318</v>
       </c>
       <c r="K292" t="s">
-        <v>1506</v>
+        <v>1500</v>
       </c>
       <c r="L292" t="s">
-        <v>1507</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="293" spans="1:12" x14ac:dyDescent="0.35">
@@ -14568,16 +14556,7 @@
         <v>0</v>
       </c>
       <c r="I294">
-        <v>1</v>
-      </c>
-      <c r="J294" t="s">
-        <v>1318</v>
-      </c>
-      <c r="K294" t="s">
-        <v>1506</v>
-      </c>
-      <c r="L294" t="s">
-        <v>1508</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:12" x14ac:dyDescent="0.35">
@@ -14641,10 +14620,10 @@
         <v>1318</v>
       </c>
       <c r="K296" t="s">
-        <v>1506</v>
+        <v>1500</v>
       </c>
       <c r="L296" t="s">
-        <v>470</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="297" spans="1:12" x14ac:dyDescent="0.35">
@@ -14708,10 +14687,10 @@
         <v>1318</v>
       </c>
       <c r="K298" t="s">
-        <v>1506</v>
+        <v>1500</v>
       </c>
       <c r="L298" t="s">
-        <v>474</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="299" spans="1:12" x14ac:dyDescent="0.35">
@@ -14746,10 +14725,10 @@
         <v>1318</v>
       </c>
       <c r="K299" t="s">
-        <v>1506</v>
+        <v>1500</v>
       </c>
       <c r="L299" t="s">
-        <v>476</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="300" spans="1:12" x14ac:dyDescent="0.35">
@@ -14813,10 +14792,10 @@
         <v>1318</v>
       </c>
       <c r="K301" t="s">
-        <v>1506</v>
+        <v>1500</v>
       </c>
       <c r="L301" t="s">
-        <v>1507</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="302" spans="1:12" x14ac:dyDescent="0.35">
@@ -14874,16 +14853,7 @@
         <v>0</v>
       </c>
       <c r="I303">
-        <v>1</v>
-      </c>
-      <c r="J303" t="s">
-        <v>1318</v>
-      </c>
-      <c r="K303" t="s">
-        <v>1506</v>
-      </c>
-      <c r="L303" t="s">
-        <v>1508</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:12" x14ac:dyDescent="0.35">
@@ -14947,10 +14917,10 @@
         <v>1318</v>
       </c>
       <c r="K305" t="s">
-        <v>1506</v>
+        <v>1500</v>
       </c>
       <c r="L305" t="s">
-        <v>470</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="306" spans="1:12" x14ac:dyDescent="0.35">
@@ -15014,10 +14984,10 @@
         <v>1318</v>
       </c>
       <c r="K307" t="s">
-        <v>1506</v>
+        <v>1500</v>
       </c>
       <c r="L307" t="s">
-        <v>474</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="308" spans="1:12" x14ac:dyDescent="0.35">
@@ -15052,10 +15022,10 @@
         <v>1318</v>
       </c>
       <c r="K308" t="s">
-        <v>1506</v>
+        <v>1500</v>
       </c>
       <c r="L308" t="s">
-        <v>476</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="309" spans="1:12" x14ac:dyDescent="0.35">
@@ -15159,10 +15129,10 @@
         <v>1318</v>
       </c>
       <c r="K312" t="s">
-        <v>1482</v>
+        <v>1477</v>
       </c>
       <c r="L312" t="s">
-        <v>1483</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="313" spans="1:12" x14ac:dyDescent="0.35">
@@ -15197,10 +15167,10 @@
         <v>1318</v>
       </c>
       <c r="K313" t="s">
-        <v>1482</v>
+        <v>1477</v>
       </c>
       <c r="L313" t="s">
-        <v>1484</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="314" spans="1:12" x14ac:dyDescent="0.35">
@@ -15235,7 +15205,7 @@
         <v>1318</v>
       </c>
       <c r="K314" t="s">
-        <v>1482</v>
+        <v>1477</v>
       </c>
       <c r="L314" t="s">
         <v>495</v>
@@ -15273,10 +15243,10 @@
         <v>1318</v>
       </c>
       <c r="K315" t="s">
-        <v>1482</v>
+        <v>1477</v>
       </c>
       <c r="L315" t="s">
-        <v>1485</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="316" spans="1:12" x14ac:dyDescent="0.35">
@@ -15311,10 +15281,10 @@
         <v>1318</v>
       </c>
       <c r="K316" t="s">
-        <v>1482</v>
+        <v>1477</v>
       </c>
       <c r="L316" t="s">
-        <v>1486</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="317" spans="1:12" x14ac:dyDescent="0.35">
@@ -15349,10 +15319,10 @@
         <v>1318</v>
       </c>
       <c r="K317" t="s">
+        <v>1477</v>
+      </c>
+      <c r="L317" t="s">
         <v>1482</v>
-      </c>
-      <c r="L317" t="s">
-        <v>1487</v>
       </c>
     </row>
     <row r="318" spans="1:12" x14ac:dyDescent="0.35">
@@ -15387,10 +15357,10 @@
         <v>1318</v>
       </c>
       <c r="K318" t="s">
-        <v>1482</v>
+        <v>1477</v>
       </c>
       <c r="L318" t="s">
-        <v>1488</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="319" spans="1:12" x14ac:dyDescent="0.35">
@@ -15425,10 +15395,10 @@
         <v>1318</v>
       </c>
       <c r="K319" t="s">
-        <v>1482</v>
+        <v>1477</v>
       </c>
       <c r="L319" t="s">
-        <v>1489</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="320" spans="1:12" x14ac:dyDescent="0.35">
@@ -15463,10 +15433,10 @@
         <v>1318</v>
       </c>
       <c r="K320" t="s">
-        <v>1482</v>
+        <v>1477</v>
       </c>
       <c r="L320" t="s">
-        <v>1490</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="321" spans="1:12" x14ac:dyDescent="0.35">
@@ -15501,10 +15471,10 @@
         <v>1318</v>
       </c>
       <c r="K321" t="s">
-        <v>1482</v>
+        <v>1477</v>
       </c>
       <c r="L321" t="s">
-        <v>1491</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="322" spans="1:12" x14ac:dyDescent="0.35">
@@ -15539,10 +15509,10 @@
         <v>1318</v>
       </c>
       <c r="K322" t="s">
-        <v>1482</v>
+        <v>1477</v>
       </c>
       <c r="L322" t="s">
-        <v>1492</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="323" spans="1:12" x14ac:dyDescent="0.35">
@@ -15577,10 +15547,10 @@
         <v>1318</v>
       </c>
       <c r="K323" t="s">
-        <v>1482</v>
+        <v>1477</v>
       </c>
       <c r="L323" t="s">
-        <v>1493</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="324" spans="1:12" x14ac:dyDescent="0.35">
@@ -15615,10 +15585,10 @@
         <v>1318</v>
       </c>
       <c r="K324" t="s">
-        <v>1482</v>
+        <v>1477</v>
       </c>
       <c r="L324" t="s">
-        <v>1494</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="325" spans="1:12" x14ac:dyDescent="0.35">
@@ -15653,10 +15623,10 @@
         <v>1318</v>
       </c>
       <c r="K325" t="s">
-        <v>1482</v>
+        <v>1477</v>
       </c>
       <c r="L325" t="s">
-        <v>1495</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="326" spans="1:12" x14ac:dyDescent="0.35">
@@ -15691,10 +15661,10 @@
         <v>1318</v>
       </c>
       <c r="K326" t="s">
-        <v>1482</v>
+        <v>1477</v>
       </c>
       <c r="L326" t="s">
-        <v>1496</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="327" spans="1:12" x14ac:dyDescent="0.35">
@@ -15723,16 +15693,7 @@
         <v>0</v>
       </c>
       <c r="I327">
-        <v>1</v>
-      </c>
-      <c r="J327" t="s">
-        <v>1318</v>
-      </c>
-      <c r="K327" t="s">
-        <v>1482</v>
-      </c>
-      <c r="L327" t="s">
-        <v>1497</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:12" x14ac:dyDescent="0.35">
@@ -15767,10 +15728,10 @@
         <v>1318</v>
       </c>
       <c r="K328" t="s">
-        <v>1482</v>
+        <v>1477</v>
       </c>
       <c r="L328" t="s">
-        <v>1498</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="329" spans="1:12" x14ac:dyDescent="0.35">
@@ -15805,10 +15766,10 @@
         <v>1318</v>
       </c>
       <c r="K329" t="s">
-        <v>1482</v>
+        <v>1477</v>
       </c>
       <c r="L329" t="s">
-        <v>1499</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="330" spans="1:12" x14ac:dyDescent="0.35">
@@ -15843,10 +15804,10 @@
         <v>1318</v>
       </c>
       <c r="K330" t="s">
-        <v>1482</v>
+        <v>1477</v>
       </c>
       <c r="L330" t="s">
-        <v>1500</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="331" spans="1:12" x14ac:dyDescent="0.35">
@@ -15881,10 +15842,10 @@
         <v>1318</v>
       </c>
       <c r="K331" t="s">
-        <v>1482</v>
+        <v>1477</v>
       </c>
       <c r="L331" t="s">
-        <v>1501</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="332" spans="1:12" x14ac:dyDescent="0.35">
@@ -15919,10 +15880,10 @@
         <v>1318</v>
       </c>
       <c r="K332" t="s">
-        <v>1482</v>
+        <v>1477</v>
       </c>
       <c r="L332" t="s">
-        <v>1502</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="333" spans="1:12" x14ac:dyDescent="0.35">
@@ -15957,10 +15918,10 @@
         <v>1318</v>
       </c>
       <c r="K333" t="s">
-        <v>1482</v>
+        <v>1477</v>
       </c>
       <c r="L333" t="s">
-        <v>1503</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="334" spans="1:12" x14ac:dyDescent="0.35">
@@ -15995,10 +15956,10 @@
         <v>1318</v>
       </c>
       <c r="K334" t="s">
-        <v>1482</v>
+        <v>1477</v>
       </c>
       <c r="L334" t="s">
-        <v>1504</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="335" spans="1:12" x14ac:dyDescent="0.35">
@@ -16033,10 +15994,10 @@
         <v>1318</v>
       </c>
       <c r="K335" t="s">
-        <v>1482</v>
+        <v>1477</v>
       </c>
       <c r="L335" t="s">
-        <v>1505</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="336" spans="1:12" x14ac:dyDescent="0.35">
@@ -16151,19 +16112,7 @@
         <v>0</v>
       </c>
       <c r="I340">
-        <v>1</v>
-      </c>
-      <c r="J340" t="s">
-        <v>1318</v>
-      </c>
-      <c r="K340" t="s">
-        <v>1537</v>
-      </c>
-      <c r="L340" t="s">
-        <v>1538</v>
-      </c>
-      <c r="M340">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341" spans="1:13" x14ac:dyDescent="0.35">
@@ -16192,19 +16141,7 @@
         <v>0</v>
       </c>
       <c r="I341">
-        <v>1</v>
-      </c>
-      <c r="J341" t="s">
-        <v>1318</v>
-      </c>
-      <c r="K341" t="s">
-        <v>1537</v>
-      </c>
-      <c r="L341" t="s">
-        <v>1539</v>
-      </c>
-      <c r="M341">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:13" x14ac:dyDescent="0.35">
@@ -16355,10 +16292,10 @@
         <v>1318</v>
       </c>
       <c r="K346" t="s">
-        <v>1537</v>
+        <v>1529</v>
       </c>
       <c r="L346" t="s">
-        <v>1540</v>
+        <v>1592</v>
       </c>
       <c r="M346">
         <v>1</v>
@@ -16512,10 +16449,10 @@
         <v>1318</v>
       </c>
       <c r="K351" t="s">
-        <v>1537</v>
+        <v>1529</v>
       </c>
       <c r="L351" t="s">
-        <v>1541</v>
+        <v>1530</v>
       </c>
       <c r="M351">
         <v>1</v>
@@ -16669,10 +16606,10 @@
         <v>1318</v>
       </c>
       <c r="K356" t="s">
-        <v>1537</v>
+        <v>1529</v>
       </c>
       <c r="L356" t="s">
-        <v>1542</v>
+        <v>1531</v>
       </c>
       <c r="M356">
         <v>1</v>
@@ -16849,19 +16786,7 @@
         <v>0</v>
       </c>
       <c r="I362">
-        <v>1</v>
-      </c>
-      <c r="J362" t="s">
-        <v>1318</v>
-      </c>
-      <c r="K362" t="s">
-        <v>1537</v>
-      </c>
-      <c r="L362" t="s">
-        <v>1538</v>
-      </c>
-      <c r="M362">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363" spans="1:13" x14ac:dyDescent="0.35">
@@ -16890,19 +16815,7 @@
         <v>0</v>
       </c>
       <c r="I363">
-        <v>1</v>
-      </c>
-      <c r="J363" t="s">
-        <v>1318</v>
-      </c>
-      <c r="K363" t="s">
-        <v>1537</v>
-      </c>
-      <c r="L363" t="s">
-        <v>1539</v>
-      </c>
-      <c r="M363">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364" spans="1:13" x14ac:dyDescent="0.35">
@@ -17053,10 +16966,10 @@
         <v>1318</v>
       </c>
       <c r="K368" t="s">
-        <v>1537</v>
+        <v>1529</v>
       </c>
       <c r="L368" t="s">
-        <v>1540</v>
+        <v>1592</v>
       </c>
       <c r="M368">
         <v>1</v>
@@ -17210,10 +17123,10 @@
         <v>1318</v>
       </c>
       <c r="K373" t="s">
-        <v>1537</v>
+        <v>1529</v>
       </c>
       <c r="L373" t="s">
-        <v>1541</v>
+        <v>1530</v>
       </c>
       <c r="M373">
         <v>1</v>
@@ -17367,10 +17280,10 @@
         <v>1318</v>
       </c>
       <c r="K378" t="s">
-        <v>1537</v>
+        <v>1529</v>
       </c>
       <c r="L378" t="s">
-        <v>1542</v>
+        <v>1531</v>
       </c>
       <c r="M378">
         <v>1</v>
@@ -17547,19 +17460,7 @@
         <v>0</v>
       </c>
       <c r="I384">
-        <v>1</v>
-      </c>
-      <c r="J384" t="s">
-        <v>1318</v>
-      </c>
-      <c r="K384" t="s">
-        <v>1537</v>
-      </c>
-      <c r="L384" t="s">
-        <v>1538</v>
-      </c>
-      <c r="M384">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:13" x14ac:dyDescent="0.35">
@@ -17588,19 +17489,7 @@
         <v>0</v>
       </c>
       <c r="I385">
-        <v>1</v>
-      </c>
-      <c r="J385" t="s">
-        <v>1318</v>
-      </c>
-      <c r="K385" t="s">
-        <v>1537</v>
-      </c>
-      <c r="L385" t="s">
-        <v>1539</v>
-      </c>
-      <c r="M385">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:13" x14ac:dyDescent="0.35">
@@ -17751,10 +17640,10 @@
         <v>1318</v>
       </c>
       <c r="K390" t="s">
-        <v>1537</v>
+        <v>1529</v>
       </c>
       <c r="L390" t="s">
-        <v>1540</v>
+        <v>1592</v>
       </c>
       <c r="M390">
         <v>1</v>
@@ -17908,10 +17797,10 @@
         <v>1318</v>
       </c>
       <c r="K395" t="s">
-        <v>1537</v>
+        <v>1529</v>
       </c>
       <c r="L395" t="s">
-        <v>1541</v>
+        <v>1530</v>
       </c>
       <c r="M395">
         <v>1</v>
@@ -18065,10 +17954,10 @@
         <v>1318</v>
       </c>
       <c r="K400" t="s">
-        <v>1537</v>
+        <v>1529</v>
       </c>
       <c r="L400" t="s">
-        <v>1542</v>
+        <v>1531</v>
       </c>
       <c r="M400">
         <v>1</v>
@@ -18276,13 +18165,13 @@
         <v>1</v>
       </c>
       <c r="J408" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="K408" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
       <c r="L408" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="409" spans="1:12" x14ac:dyDescent="0.35">
@@ -18314,13 +18203,13 @@
         <v>1</v>
       </c>
       <c r="J409" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="K409" t="s">
+        <v>1390</v>
+      </c>
+      <c r="L409" t="s">
         <v>1392</v>
-      </c>
-      <c r="L409" t="s">
-        <v>1394</v>
       </c>
     </row>
     <row r="410" spans="1:12" x14ac:dyDescent="0.35">
@@ -18352,13 +18241,13 @@
         <v>1</v>
       </c>
       <c r="J410" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="K410" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
       <c r="L410" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="411" spans="1:12" x14ac:dyDescent="0.35">
@@ -18390,13 +18279,13 @@
         <v>1</v>
       </c>
       <c r="J411" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="K411" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
       <c r="L411" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="412" spans="1:12" x14ac:dyDescent="0.35">
@@ -18428,13 +18317,13 @@
         <v>1</v>
       </c>
       <c r="J412" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="K412" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
       <c r="L412" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="413" spans="1:12" x14ac:dyDescent="0.35">
@@ -18466,13 +18355,13 @@
         <v>1</v>
       </c>
       <c r="J413" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="K413" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
       <c r="L413" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="414" spans="1:12" x14ac:dyDescent="0.35">
@@ -18504,13 +18393,13 @@
         <v>1</v>
       </c>
       <c r="J414" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="K414" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
       <c r="L414" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="415" spans="1:12" x14ac:dyDescent="0.35">
@@ -18599,13 +18488,13 @@
         <v>1</v>
       </c>
       <c r="J418" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="K418" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
       <c r="L418" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="419" spans="1:12" x14ac:dyDescent="0.35">
@@ -18637,13 +18526,13 @@
         <v>1</v>
       </c>
       <c r="J419" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="K419" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
       <c r="L419" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="420" spans="1:12" x14ac:dyDescent="0.35">
@@ -18675,13 +18564,13 @@
         <v>1</v>
       </c>
       <c r="J420" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="K420" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
       <c r="L420" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="421" spans="1:12" x14ac:dyDescent="0.35">
@@ -18713,13 +18602,13 @@
         <v>1</v>
       </c>
       <c r="J421" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="K421" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
       <c r="L421" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="422" spans="1:12" x14ac:dyDescent="0.35">
@@ -18751,13 +18640,13 @@
         <v>1</v>
       </c>
       <c r="J422" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="K422" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
       <c r="L422" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="423" spans="1:12" x14ac:dyDescent="0.35">
@@ -18789,13 +18678,13 @@
         <v>1</v>
       </c>
       <c r="J423" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="K423" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
       <c r="L423" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="424" spans="1:12" x14ac:dyDescent="0.35">
@@ -18827,13 +18716,13 @@
         <v>1</v>
       </c>
       <c r="J424" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="K424" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
       <c r="L424" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="425" spans="1:12" x14ac:dyDescent="0.35">
@@ -18865,13 +18754,13 @@
         <v>1</v>
       </c>
       <c r="J425" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="K425" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
       <c r="L425" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="426" spans="1:12" x14ac:dyDescent="0.35">
@@ -18903,13 +18792,13 @@
         <v>1</v>
       </c>
       <c r="J426" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="K426" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
       <c r="L426" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="427" spans="1:12" x14ac:dyDescent="0.35">
@@ -18941,13 +18830,13 @@
         <v>1</v>
       </c>
       <c r="J427" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="K427" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
       <c r="L427" t="s">
-        <v>1409</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="428" spans="1:12" x14ac:dyDescent="0.35">
@@ -18979,13 +18868,13 @@
         <v>1</v>
       </c>
       <c r="J428" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="K428" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
       <c r="L428" t="s">
-        <v>1410</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="429" spans="1:12" x14ac:dyDescent="0.35">
@@ -19017,13 +18906,13 @@
         <v>1</v>
       </c>
       <c r="J429" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="K429" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
       <c r="L429" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="430" spans="1:12" x14ac:dyDescent="0.35">
@@ -19055,13 +18944,13 @@
         <v>1</v>
       </c>
       <c r="J430" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="K430" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
       <c r="L430" t="s">
-        <v>1412</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="431" spans="1:12" x14ac:dyDescent="0.35">
@@ -19093,13 +18982,13 @@
         <v>1</v>
       </c>
       <c r="J431" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="K431" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
       <c r="L431" t="s">
-        <v>1413</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="432" spans="1:12" x14ac:dyDescent="0.35">
@@ -19131,13 +19020,13 @@
         <v>1</v>
       </c>
       <c r="J432" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="K432" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
       <c r="L432" t="s">
-        <v>1414</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="433" spans="1:14" x14ac:dyDescent="0.35">
@@ -19169,13 +19058,13 @@
         <v>1</v>
       </c>
       <c r="J433" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="K433" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
       <c r="L433" t="s">
-        <v>1415</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="434" spans="1:14" x14ac:dyDescent="0.35">
@@ -19264,7 +19153,7 @@
         <v>0</v>
       </c>
       <c r="N437" t="s">
-        <v>1416</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="438" spans="1:14" x14ac:dyDescent="0.35">
@@ -19382,13 +19271,13 @@
         <v>1</v>
       </c>
       <c r="J442" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="K442" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
       <c r="L442" t="s">
-        <v>1417</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="443" spans="1:14" x14ac:dyDescent="0.35">
@@ -19553,13 +19442,13 @@
         <v>1</v>
       </c>
       <c r="J448" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="K448" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
       <c r="L448" t="s">
-        <v>1543</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="449" spans="1:12" x14ac:dyDescent="0.35">
@@ -19782,13 +19671,13 @@
         <v>1</v>
       </c>
       <c r="J456" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="K456" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
       <c r="L456" t="s">
-        <v>1544</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="457" spans="1:12" x14ac:dyDescent="0.35">
@@ -20753,13 +20642,13 @@
         <v>1</v>
       </c>
       <c r="J490" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="K490" t="s">
-        <v>1545</v>
+        <v>1534</v>
       </c>
       <c r="L490" t="s">
-        <v>1546</v>
+        <v>1535</v>
       </c>
       <c r="M490">
         <v>1</v>
@@ -20968,13 +20857,13 @@
         <v>1</v>
       </c>
       <c r="J497" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="K497" t="s">
-        <v>1545</v>
+        <v>1534</v>
       </c>
       <c r="L497" t="s">
-        <v>1547</v>
+        <v>1536</v>
       </c>
       <c r="M497">
         <v>1</v>
@@ -21096,13 +20985,13 @@
         <v>1</v>
       </c>
       <c r="J501" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="K501" t="s">
-        <v>1545</v>
+        <v>1534</v>
       </c>
       <c r="L501" t="s">
-        <v>1548</v>
+        <v>1537</v>
       </c>
       <c r="M501">
         <v>1</v>
@@ -21224,13 +21113,13 @@
         <v>1</v>
       </c>
       <c r="J505" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="K505" t="s">
-        <v>1545</v>
+        <v>1534</v>
       </c>
       <c r="L505" t="s">
-        <v>1551</v>
+        <v>1540</v>
       </c>
       <c r="M505">
         <v>1</v>
@@ -21265,13 +21154,13 @@
         <v>1</v>
       </c>
       <c r="J506" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="K506" t="s">
-        <v>1545</v>
+        <v>1534</v>
       </c>
       <c r="L506" t="s">
-        <v>1552</v>
+        <v>1541</v>
       </c>
       <c r="M506">
         <v>1</v>
@@ -21306,13 +21195,13 @@
         <v>1</v>
       </c>
       <c r="J507" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="K507" t="s">
-        <v>1545</v>
+        <v>1534</v>
       </c>
       <c r="L507" t="s">
-        <v>1553</v>
+        <v>1542</v>
       </c>
       <c r="M507">
         <v>1</v>
@@ -21347,13 +21236,13 @@
         <v>1</v>
       </c>
       <c r="J508" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="K508" t="s">
-        <v>1545</v>
+        <v>1534</v>
       </c>
       <c r="L508" t="s">
-        <v>1549</v>
+        <v>1538</v>
       </c>
       <c r="M508">
         <v>1</v>
@@ -21446,13 +21335,13 @@
         <v>1</v>
       </c>
       <c r="J511" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="K511" t="s">
-        <v>1545</v>
+        <v>1534</v>
       </c>
       <c r="L511" t="s">
-        <v>1550</v>
+        <v>1539</v>
       </c>
       <c r="M511">
         <v>1</v>
@@ -21632,13 +21521,13 @@
         <v>1</v>
       </c>
       <c r="J517" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="K517" t="s">
-        <v>1545</v>
+        <v>1534</v>
       </c>
       <c r="L517" t="s">
-        <v>1546</v>
+        <v>1535</v>
       </c>
       <c r="M517">
         <v>1</v>
@@ -21847,13 +21736,13 @@
         <v>1</v>
       </c>
       <c r="J524" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="K524" t="s">
-        <v>1545</v>
+        <v>1534</v>
       </c>
       <c r="L524" t="s">
-        <v>1547</v>
+        <v>1536</v>
       </c>
       <c r="M524">
         <v>1</v>
@@ -21975,13 +21864,13 @@
         <v>1</v>
       </c>
       <c r="J528" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="K528" t="s">
-        <v>1545</v>
+        <v>1534</v>
       </c>
       <c r="L528" t="s">
-        <v>1548</v>
+        <v>1537</v>
       </c>
       <c r="M528">
         <v>1</v>
@@ -22103,13 +21992,13 @@
         <v>1</v>
       </c>
       <c r="J532" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="K532" t="s">
-        <v>1545</v>
+        <v>1534</v>
       </c>
       <c r="L532" t="s">
-        <v>1551</v>
+        <v>1540</v>
       </c>
       <c r="M532">
         <v>1</v>
@@ -22144,13 +22033,13 @@
         <v>1</v>
       </c>
       <c r="J533" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="K533" t="s">
-        <v>1545</v>
+        <v>1534</v>
       </c>
       <c r="L533" t="s">
-        <v>1552</v>
+        <v>1541</v>
       </c>
       <c r="M533">
         <v>1</v>
@@ -22185,13 +22074,13 @@
         <v>1</v>
       </c>
       <c r="J534" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="K534" t="s">
-        <v>1545</v>
+        <v>1534</v>
       </c>
       <c r="L534" t="s">
-        <v>1553</v>
+        <v>1542</v>
       </c>
       <c r="M534">
         <v>1</v>
@@ -22226,13 +22115,13 @@
         <v>1</v>
       </c>
       <c r="J535" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="K535" t="s">
-        <v>1545</v>
+        <v>1534</v>
       </c>
       <c r="L535" t="s">
-        <v>1549</v>
+        <v>1538</v>
       </c>
       <c r="M535">
         <v>1</v>
@@ -22325,13 +22214,13 @@
         <v>1</v>
       </c>
       <c r="J538" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="K538" t="s">
-        <v>1545</v>
+        <v>1534</v>
       </c>
       <c r="L538" t="s">
-        <v>1550</v>
+        <v>1539</v>
       </c>
       <c r="M538">
         <v>1</v>
@@ -22625,13 +22514,13 @@
         <v>1</v>
       </c>
       <c r="J550" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="K550" t="s">
-        <v>1418</v>
+        <v>1416</v>
       </c>
       <c r="L550" t="s">
-        <v>1419</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="551" spans="1:12" x14ac:dyDescent="0.35">
@@ -22749,13 +22638,13 @@
         <v>1</v>
       </c>
       <c r="J555" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="K555" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
       <c r="L555" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="556" spans="1:12" x14ac:dyDescent="0.35">
@@ -22844,13 +22733,13 @@
         <v>1</v>
       </c>
       <c r="J559" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="K559" t="s">
-        <v>1554</v>
+        <v>1543</v>
       </c>
       <c r="L559" t="s">
-        <v>1555</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="560" spans="1:12" x14ac:dyDescent="0.35">
@@ -22911,13 +22800,13 @@
         <v>1</v>
       </c>
       <c r="J561" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="K561" t="s">
-        <v>1554</v>
+        <v>1543</v>
       </c>
       <c r="L561" t="s">
-        <v>1556</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="562" spans="1:12" x14ac:dyDescent="0.35">
@@ -22978,13 +22867,13 @@
         <v>1</v>
       </c>
       <c r="J563" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="K563" t="s">
-        <v>1554</v>
+        <v>1543</v>
       </c>
       <c r="L563" t="s">
-        <v>1557</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="564" spans="1:12" x14ac:dyDescent="0.35">
@@ -23016,13 +22905,13 @@
         <v>1</v>
       </c>
       <c r="J564" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="K564" t="s">
-        <v>1554</v>
+        <v>1543</v>
       </c>
       <c r="L564" t="s">
-        <v>1558</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="565" spans="1:12" x14ac:dyDescent="0.35">
@@ -23140,13 +23029,13 @@
         <v>1</v>
       </c>
       <c r="J569" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="K569" t="s">
-        <v>1559</v>
+        <v>1548</v>
       </c>
       <c r="L569" t="s">
-        <v>1560</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="570" spans="1:12" x14ac:dyDescent="0.35">
@@ -23178,13 +23067,13 @@
         <v>1</v>
       </c>
       <c r="J570" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="K570" t="s">
-        <v>1559</v>
+        <v>1548</v>
       </c>
       <c r="L570" t="s">
-        <v>1561</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="571" spans="1:12" x14ac:dyDescent="0.35">
@@ -23216,13 +23105,13 @@
         <v>1</v>
       </c>
       <c r="J571" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="K571" t="s">
-        <v>1559</v>
+        <v>1548</v>
       </c>
       <c r="L571" t="s">
-        <v>1562</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="572" spans="1:12" x14ac:dyDescent="0.35">
@@ -23254,13 +23143,13 @@
         <v>1</v>
       </c>
       <c r="J572" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="K572" t="s">
-        <v>1559</v>
+        <v>1548</v>
       </c>
       <c r="L572" t="s">
-        <v>1563</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="573" spans="1:12" x14ac:dyDescent="0.35">
@@ -23292,13 +23181,13 @@
         <v>1</v>
       </c>
       <c r="J573" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="K573" t="s">
-        <v>1559</v>
+        <v>1548</v>
       </c>
       <c r="L573" t="s">
-        <v>1564</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="574" spans="1:12" x14ac:dyDescent="0.35">
@@ -23330,13 +23219,13 @@
         <v>1</v>
       </c>
       <c r="J574" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="K574" t="s">
-        <v>1559</v>
+        <v>1548</v>
       </c>
       <c r="L574" t="s">
-        <v>1565</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="575" spans="1:12" x14ac:dyDescent="0.35">
@@ -23368,13 +23257,13 @@
         <v>1</v>
       </c>
       <c r="J575" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="K575" t="s">
-        <v>1559</v>
+        <v>1548</v>
       </c>
       <c r="L575" t="s">
-        <v>1566</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="576" spans="1:12" x14ac:dyDescent="0.35">
@@ -23406,13 +23295,13 @@
         <v>1</v>
       </c>
       <c r="J576" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="K576" t="s">
-        <v>1559</v>
+        <v>1548</v>
       </c>
       <c r="L576" t="s">
-        <v>1567</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="577" spans="1:12" x14ac:dyDescent="0.35">
@@ -23444,13 +23333,13 @@
         <v>1</v>
       </c>
       <c r="J577" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="K577" t="s">
-        <v>1559</v>
+        <v>1548</v>
       </c>
       <c r="L577" t="s">
-        <v>1568</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="578" spans="1:12" x14ac:dyDescent="0.35">
@@ -23596,13 +23485,13 @@
         <v>1</v>
       </c>
       <c r="J584" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="K584" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
       <c r="L584" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="585" spans="1:12" x14ac:dyDescent="0.35">
@@ -23634,13 +23523,13 @@
         <v>1</v>
       </c>
       <c r="J585" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="K585" t="s">
+        <v>1420</v>
+      </c>
+      <c r="L585" t="s">
         <v>1422</v>
-      </c>
-      <c r="L585" t="s">
-        <v>1424</v>
       </c>
     </row>
     <row r="586" spans="1:12" x14ac:dyDescent="0.35">
@@ -23672,13 +23561,13 @@
         <v>1</v>
       </c>
       <c r="J586" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="K586" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
       <c r="L586" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="587" spans="1:12" x14ac:dyDescent="0.35">
@@ -23710,13 +23599,13 @@
         <v>1</v>
       </c>
       <c r="J587" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="K587" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
       <c r="L587" t="s">
-        <v>1426</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="588" spans="1:12" x14ac:dyDescent="0.35">
@@ -23748,13 +23637,13 @@
         <v>1</v>
       </c>
       <c r="J588" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="K588" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
       <c r="L588" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="589" spans="1:12" x14ac:dyDescent="0.35">
@@ -23786,13 +23675,13 @@
         <v>1</v>
       </c>
       <c r="J589" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="K589" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
       <c r="L589" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="590" spans="1:12" x14ac:dyDescent="0.35">
@@ -23824,13 +23713,13 @@
         <v>1</v>
       </c>
       <c r="J590" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="K590" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
       <c r="L590" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="591" spans="1:12" x14ac:dyDescent="0.35">
@@ -23862,13 +23751,13 @@
         <v>1</v>
       </c>
       <c r="J591" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="K591" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
       <c r="L591" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="592" spans="1:12" x14ac:dyDescent="0.35">
@@ -23900,13 +23789,13 @@
         <v>1</v>
       </c>
       <c r="J592" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="K592" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
       <c r="L592" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="593" spans="1:12" x14ac:dyDescent="0.35">
@@ -24024,13 +23913,13 @@
         <v>1</v>
       </c>
       <c r="J597" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="K597" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
       <c r="L597" t="s">
-        <v>1433</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="598" spans="1:12" x14ac:dyDescent="0.35">
@@ -24062,13 +23951,13 @@
         <v>1</v>
       </c>
       <c r="J598" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="K598" t="s">
+        <v>1430</v>
+      </c>
+      <c r="L598" t="s">
         <v>1432</v>
-      </c>
-      <c r="L598" t="s">
-        <v>1434</v>
       </c>
     </row>
     <row r="599" spans="1:12" x14ac:dyDescent="0.35">
@@ -24100,13 +23989,13 @@
         <v>1</v>
       </c>
       <c r="J599" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="K599" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
       <c r="L599" t="s">
-        <v>1435</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="600" spans="1:12" x14ac:dyDescent="0.35">
@@ -24138,13 +24027,13 @@
         <v>1</v>
       </c>
       <c r="J600" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="K600" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
       <c r="L600" t="s">
-        <v>1436</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="601" spans="1:12" x14ac:dyDescent="0.35">
@@ -24176,13 +24065,13 @@
         <v>1</v>
       </c>
       <c r="J601" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="K601" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
       <c r="L601" t="s">
-        <v>1437</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="602" spans="1:12" x14ac:dyDescent="0.35">
@@ -24214,13 +24103,13 @@
         <v>1</v>
       </c>
       <c r="J602" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="K602" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
       <c r="L602" t="s">
-        <v>1438</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="603" spans="1:12" x14ac:dyDescent="0.35">
@@ -24252,13 +24141,13 @@
         <v>1</v>
       </c>
       <c r="J603" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="K603" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
       <c r="L603" t="s">
-        <v>1439</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="604" spans="1:12" x14ac:dyDescent="0.35">
@@ -24290,13 +24179,13 @@
         <v>1</v>
       </c>
       <c r="J604" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="K604" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
       <c r="L604" t="s">
-        <v>1440</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="605" spans="1:12" x14ac:dyDescent="0.35">
@@ -24328,13 +24217,13 @@
         <v>1</v>
       </c>
       <c r="J605" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="K605" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
       <c r="L605" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="606" spans="1:12" x14ac:dyDescent="0.35">
@@ -24366,13 +24255,13 @@
         <v>1</v>
       </c>
       <c r="J606" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="K606" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
       <c r="L606" t="s">
-        <v>1442</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="607" spans="1:12" x14ac:dyDescent="0.35">
@@ -24461,13 +24350,13 @@
         <v>1</v>
       </c>
       <c r="J610" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="K610" t="s">
-        <v>1443</v>
+        <v>1441</v>
       </c>
       <c r="L610" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="611" spans="1:12" x14ac:dyDescent="0.35">
@@ -24499,13 +24388,13 @@
         <v>1</v>
       </c>
       <c r="J611" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="K611" t="s">
+        <v>1441</v>
+      </c>
+      <c r="L611" t="s">
         <v>1443</v>
-      </c>
-      <c r="L611" t="s">
-        <v>1445</v>
       </c>
     </row>
     <row r="612" spans="1:12" x14ac:dyDescent="0.35">
@@ -24537,13 +24426,13 @@
         <v>1</v>
       </c>
       <c r="J612" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="K612" t="s">
-        <v>1443</v>
+        <v>1441</v>
       </c>
       <c r="L612" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="613" spans="1:12" x14ac:dyDescent="0.35">
@@ -24575,13 +24464,13 @@
         <v>1</v>
       </c>
       <c r="J613" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="K613" t="s">
-        <v>1443</v>
+        <v>1441</v>
       </c>
       <c r="L613" t="s">
-        <v>1447</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="614" spans="1:12" x14ac:dyDescent="0.35">
@@ -24613,13 +24502,13 @@
         <v>1</v>
       </c>
       <c r="J614" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="K614" t="s">
-        <v>1443</v>
+        <v>1441</v>
       </c>
       <c r="L614" t="s">
-        <v>1448</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="615" spans="1:12" x14ac:dyDescent="0.35">
@@ -24651,13 +24540,13 @@
         <v>1</v>
       </c>
       <c r="J615" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="K615" t="s">
-        <v>1443</v>
+        <v>1441</v>
       </c>
       <c r="L615" t="s">
-        <v>1449</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="616" spans="1:12" x14ac:dyDescent="0.35">
@@ -24775,13 +24664,13 @@
         <v>1</v>
       </c>
       <c r="J620" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="K620" t="s">
-        <v>1570</v>
+        <v>1559</v>
       </c>
       <c r="L620" t="s">
-        <v>1571</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="621" spans="1:12" x14ac:dyDescent="0.35">
@@ -24813,13 +24702,13 @@
         <v>1</v>
       </c>
       <c r="J621" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="K621" t="s">
-        <v>1570</v>
+        <v>1559</v>
       </c>
       <c r="L621" t="s">
-        <v>1572</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="622" spans="1:12" x14ac:dyDescent="0.35">
@@ -24851,13 +24740,13 @@
         <v>1</v>
       </c>
       <c r="J622" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="K622" t="s">
-        <v>1570</v>
+        <v>1559</v>
       </c>
       <c r="L622" t="s">
-        <v>1573</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="623" spans="1:12" x14ac:dyDescent="0.35">
@@ -24889,13 +24778,13 @@
         <v>1</v>
       </c>
       <c r="J623" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="K623" t="s">
-        <v>1570</v>
+        <v>1559</v>
       </c>
       <c r="L623" t="s">
-        <v>1574</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="624" spans="1:12" x14ac:dyDescent="0.35">
@@ -24927,13 +24816,13 @@
         <v>1</v>
       </c>
       <c r="J624" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="K624" t="s">
-        <v>1570</v>
+        <v>1559</v>
       </c>
       <c r="L624" t="s">
-        <v>1575</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="625" spans="1:12" x14ac:dyDescent="0.35">
@@ -24965,13 +24854,13 @@
         <v>1</v>
       </c>
       <c r="J625" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="K625" t="s">
-        <v>1570</v>
+        <v>1559</v>
       </c>
       <c r="L625" t="s">
-        <v>1576</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="626" spans="1:12" x14ac:dyDescent="0.35">
@@ -25003,13 +24892,13 @@
         <v>1</v>
       </c>
       <c r="J626" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="K626" t="s">
-        <v>1570</v>
+        <v>1559</v>
       </c>
       <c r="L626" t="s">
-        <v>1577</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="627" spans="1:12" x14ac:dyDescent="0.35">
@@ -25041,13 +24930,13 @@
         <v>1</v>
       </c>
       <c r="J627" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="K627" t="s">
-        <v>1570</v>
+        <v>1559</v>
       </c>
       <c r="L627" t="s">
-        <v>1578</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="628" spans="1:12" x14ac:dyDescent="0.35">
@@ -25079,13 +24968,13 @@
         <v>1</v>
       </c>
       <c r="J628" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="K628" t="s">
-        <v>1570</v>
+        <v>1559</v>
       </c>
       <c r="L628" t="s">
-        <v>1579</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="629" spans="1:12" x14ac:dyDescent="0.35">
@@ -25117,13 +25006,13 @@
         <v>1</v>
       </c>
       <c r="J629" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="K629" t="s">
-        <v>1570</v>
+        <v>1559</v>
       </c>
       <c r="L629" t="s">
-        <v>1580</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="630" spans="1:12" x14ac:dyDescent="0.35">
@@ -25155,13 +25044,13 @@
         <v>1</v>
       </c>
       <c r="J630" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="K630" t="s">
+        <v>1559</v>
+      </c>
+      <c r="L630" t="s">
         <v>1570</v>
-      </c>
-      <c r="L630" t="s">
-        <v>1581</v>
       </c>
     </row>
     <row r="631" spans="1:12" x14ac:dyDescent="0.35">
@@ -25193,13 +25082,13 @@
         <v>1</v>
       </c>
       <c r="J631" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="K631" t="s">
-        <v>1570</v>
+        <v>1559</v>
       </c>
       <c r="L631" t="s">
-        <v>1582</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="632" spans="1:12" x14ac:dyDescent="0.35">
@@ -25231,13 +25120,13 @@
         <v>1</v>
       </c>
       <c r="J632" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="K632" t="s">
-        <v>1570</v>
+        <v>1559</v>
       </c>
       <c r="L632" t="s">
-        <v>1583</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="633" spans="1:12" x14ac:dyDescent="0.35">
@@ -25269,13 +25158,13 @@
         <v>1</v>
       </c>
       <c r="J633" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="K633" t="s">
-        <v>1570</v>
+        <v>1559</v>
       </c>
       <c r="L633" t="s">
-        <v>1584</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="634" spans="1:12" x14ac:dyDescent="0.35">
@@ -25307,13 +25196,13 @@
         <v>1</v>
       </c>
       <c r="J634" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="K634" t="s">
-        <v>1570</v>
+        <v>1559</v>
       </c>
       <c r="L634" t="s">
-        <v>1585</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="635" spans="1:12" x14ac:dyDescent="0.35">
@@ -25345,13 +25234,13 @@
         <v>1</v>
       </c>
       <c r="J635" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="K635" t="s">
-        <v>1570</v>
+        <v>1559</v>
       </c>
       <c r="L635" t="s">
-        <v>1586</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="636" spans="1:12" x14ac:dyDescent="0.35">
@@ -25383,13 +25272,13 @@
         <v>1</v>
       </c>
       <c r="J636" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="K636" t="s">
-        <v>1570</v>
+        <v>1559</v>
       </c>
       <c r="L636" t="s">
-        <v>1587</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="637" spans="1:12" x14ac:dyDescent="0.35">
@@ -25421,13 +25310,13 @@
         <v>1</v>
       </c>
       <c r="J637" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="K637" t="s">
-        <v>1570</v>
+        <v>1559</v>
       </c>
       <c r="L637" t="s">
-        <v>1588</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="638" spans="1:12" x14ac:dyDescent="0.35">
@@ -25459,13 +25348,13 @@
         <v>1</v>
       </c>
       <c r="J638" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="K638" t="s">
-        <v>1570</v>
+        <v>1559</v>
       </c>
       <c r="L638" t="s">
-        <v>1589</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="639" spans="1:12" x14ac:dyDescent="0.35">
@@ -25497,13 +25386,13 @@
         <v>1</v>
       </c>
       <c r="J639" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="K639" t="s">
-        <v>1570</v>
+        <v>1559</v>
       </c>
       <c r="L639" t="s">
-        <v>1590</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="640" spans="1:12" x14ac:dyDescent="0.35">
@@ -25535,13 +25424,13 @@
         <v>1</v>
       </c>
       <c r="J640" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="K640" t="s">
-        <v>1570</v>
+        <v>1559</v>
       </c>
       <c r="L640" t="s">
-        <v>1591</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="641" spans="1:12" x14ac:dyDescent="0.35">
@@ -25573,13 +25462,13 @@
         <v>1</v>
       </c>
       <c r="J641" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="K641" t="s">
-        <v>1570</v>
+        <v>1559</v>
       </c>
       <c r="L641" t="s">
-        <v>1592</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="642" spans="1:12" x14ac:dyDescent="0.35">
@@ -25611,13 +25500,13 @@
         <v>1</v>
       </c>
       <c r="J642" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="K642" t="s">
-        <v>1570</v>
+        <v>1559</v>
       </c>
       <c r="L642" t="s">
-        <v>1593</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="643" spans="1:12" x14ac:dyDescent="0.35">
@@ -25649,13 +25538,13 @@
         <v>1</v>
       </c>
       <c r="J643" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="K643" t="s">
-        <v>1570</v>
+        <v>1559</v>
       </c>
       <c r="L643" t="s">
-        <v>1594</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="644" spans="1:12" x14ac:dyDescent="0.35">
@@ -25744,13 +25633,13 @@
         <v>1</v>
       </c>
       <c r="J647" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="K647" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
       <c r="L647" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="648" spans="1:12" x14ac:dyDescent="0.35">
@@ -26940,13 +26829,13 @@
         <v>1</v>
       </c>
       <c r="J690" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="K690" t="s">
+        <v>1448</v>
+      </c>
+      <c r="L690" t="s">
         <v>1450</v>
-      </c>
-      <c r="L690" t="s">
-        <v>1452</v>
       </c>
     </row>
     <row r="691" spans="1:12" x14ac:dyDescent="0.35">
@@ -26978,13 +26867,13 @@
         <v>1</v>
       </c>
       <c r="J691" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="K691" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
       <c r="L691" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="692" spans="1:12" x14ac:dyDescent="0.35">
@@ -27016,13 +26905,13 @@
         <v>1</v>
       </c>
       <c r="J692" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="K692" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
       <c r="L692" t="s">
-        <v>1454</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="693" spans="1:12" x14ac:dyDescent="0.35">
@@ -27054,13 +26943,13 @@
         <v>1</v>
       </c>
       <c r="J693" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="K693" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
       <c r="L693" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="694" spans="1:12" x14ac:dyDescent="0.35">
@@ -27092,13 +26981,13 @@
         <v>1</v>
       </c>
       <c r="J694" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="K694" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
       <c r="L694" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="695" spans="1:12" x14ac:dyDescent="0.35">
@@ -27130,13 +27019,13 @@
         <v>1</v>
       </c>
       <c r="J695" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="K695" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
       <c r="L695" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="696" spans="1:12" x14ac:dyDescent="0.35">
@@ -27168,13 +27057,13 @@
         <v>1</v>
       </c>
       <c r="J696" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="K696" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
       <c r="L696" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="697" spans="1:12" x14ac:dyDescent="0.35">
@@ -27206,13 +27095,13 @@
         <v>1</v>
       </c>
       <c r="J697" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="K697" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
       <c r="L697" t="s">
-        <v>1459</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="698" spans="1:12" x14ac:dyDescent="0.35">
@@ -27244,13 +27133,13 @@
         <v>1</v>
       </c>
       <c r="J698" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="K698" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
       <c r="L698" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="699" spans="1:12" x14ac:dyDescent="0.35">
@@ -27339,13 +27228,13 @@
         <v>1</v>
       </c>
       <c r="J702" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="K702" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
       <c r="L702" t="s">
-        <v>1461</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="703" spans="1:12" x14ac:dyDescent="0.35">
@@ -27405,13 +27294,13 @@
         <v>1</v>
       </c>
       <c r="J705" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="K705" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
       <c r="L705" t="s">
-        <v>1462</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="706" spans="1:12" x14ac:dyDescent="0.35">
@@ -27471,13 +27360,13 @@
         <v>1</v>
       </c>
       <c r="J708" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="K708" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
       <c r="L708" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="709" spans="1:12" x14ac:dyDescent="0.35">
@@ -29685,16 +29574,7 @@
         <v>0</v>
       </c>
       <c r="I789">
-        <v>1</v>
-      </c>
-      <c r="J789" t="s">
-        <v>1371</v>
-      </c>
-      <c r="K789" t="s">
-        <v>1464</v>
-      </c>
-      <c r="L789" t="s">
-        <v>1465</v>
+        <v>0</v>
       </c>
     </row>
     <row r="790" spans="1:12" x14ac:dyDescent="0.35">
@@ -29726,13 +29606,13 @@
         <v>1</v>
       </c>
       <c r="J790" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="K790" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
       <c r="L790" t="s">
-        <v>1466</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="791" spans="1:12" x14ac:dyDescent="0.35">
@@ -29761,16 +29641,7 @@
         <v>0</v>
       </c>
       <c r="I791">
-        <v>1</v>
-      </c>
-      <c r="J791" t="s">
-        <v>1371</v>
-      </c>
-      <c r="K791" t="s">
-        <v>1464</v>
-      </c>
-      <c r="L791" t="s">
-        <v>1217</v>
+        <v>0</v>
       </c>
     </row>
     <row r="792" spans="1:12" x14ac:dyDescent="0.35">
@@ -29802,13 +29673,13 @@
         <v>1</v>
       </c>
       <c r="J792" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="K792" t="s">
+        <v>1462</v>
+      </c>
+      <c r="L792" t="s">
         <v>1464</v>
-      </c>
-      <c r="L792" t="s">
-        <v>1467</v>
       </c>
     </row>
     <row r="793" spans="1:12" x14ac:dyDescent="0.35">
@@ -29837,16 +29708,7 @@
         <v>0</v>
       </c>
       <c r="I793">
-        <v>1</v>
-      </c>
-      <c r="J793" t="s">
-        <v>1371</v>
-      </c>
-      <c r="K793" t="s">
-        <v>1464</v>
-      </c>
-      <c r="L793" t="s">
-        <v>1468</v>
+        <v>0</v>
       </c>
     </row>
     <row r="794" spans="1:12" x14ac:dyDescent="0.35">
@@ -29878,13 +29740,13 @@
         <v>1</v>
       </c>
       <c r="J794" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="K794" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
       <c r="L794" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="795" spans="1:12" x14ac:dyDescent="0.35">
@@ -29974,13 +29836,13 @@
         <v>1</v>
       </c>
       <c r="J797" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="K797" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
       <c r="L797" t="s">
-        <v>1470</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="798" spans="1:12" x14ac:dyDescent="0.35">
@@ -30098,13 +29960,13 @@
         <v>1</v>
       </c>
       <c r="J802" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="K802" t="s">
-        <v>1471</v>
+        <v>1467</v>
       </c>
       <c r="L802" t="s">
-        <v>1472</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="803" spans="1:12" x14ac:dyDescent="0.35">
@@ -30133,16 +29995,7 @@
         <v>0</v>
       </c>
       <c r="I803">
-        <v>1</v>
-      </c>
-      <c r="J803" t="s">
-        <v>1371</v>
-      </c>
-      <c r="K803" t="s">
-        <v>1471</v>
-      </c>
-      <c r="L803" t="s">
-        <v>1473</v>
+        <v>0</v>
       </c>
     </row>
     <row r="804" spans="1:12" x14ac:dyDescent="0.35">
@@ -30203,13 +30056,13 @@
         <v>1</v>
       </c>
       <c r="J805" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="K805" t="s">
-        <v>1471</v>
+        <v>1467</v>
       </c>
       <c r="L805" t="s">
-        <v>1474</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="806" spans="1:12" x14ac:dyDescent="0.35">
@@ -30270,13 +30123,13 @@
         <v>1</v>
       </c>
       <c r="J807" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="K807" t="s">
-        <v>1471</v>
+        <v>1467</v>
       </c>
       <c r="L807" t="s">
-        <v>1475</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="808" spans="1:12" x14ac:dyDescent="0.35">
@@ -30308,13 +30161,13 @@
         <v>1</v>
       </c>
       <c r="J808" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="K808" t="s">
+        <v>1467</v>
+      </c>
+      <c r="L808" t="s">
         <v>1471</v>
-      </c>
-      <c r="L808" t="s">
-        <v>1476</v>
       </c>
     </row>
     <row r="809" spans="1:12" x14ac:dyDescent="0.35">
@@ -30346,13 +30199,13 @@
         <v>0</v>
       </c>
       <c r="J809" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="K809" t="s">
-        <v>1471</v>
+        <v>1467</v>
       </c>
       <c r="L809" t="s">
-        <v>1477</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="810" spans="1:12" x14ac:dyDescent="0.35">
@@ -30413,13 +30266,13 @@
         <v>1</v>
       </c>
       <c r="J811" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="K811" t="s">
-        <v>1471</v>
+        <v>1467</v>
       </c>
       <c r="L811" t="s">
-        <v>1478</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="812" spans="1:12" x14ac:dyDescent="0.35">
@@ -30451,13 +30304,13 @@
         <v>1</v>
       </c>
       <c r="J812" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="K812" t="s">
-        <v>1471</v>
+        <v>1467</v>
       </c>
       <c r="L812" t="s">
-        <v>1479</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="813" spans="1:12" x14ac:dyDescent="0.35">
@@ -30633,13 +30486,13 @@
         <v>1</v>
       </c>
       <c r="J819" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="K819" t="s">
-        <v>1471</v>
+        <v>1467</v>
       </c>
       <c r="L819" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="820" spans="1:12" x14ac:dyDescent="0.35">
@@ -30671,13 +30524,13 @@
         <v>1</v>
       </c>
       <c r="J820" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="K820" t="s">
-        <v>1471</v>
+        <v>1467</v>
       </c>
       <c r="L820" t="s">
-        <v>1481</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="821" spans="1:12" x14ac:dyDescent="0.35">

--- a/data/acs_variables_initial_1.4.xlsx
+++ b/data/acs_variables_initial_1.4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\US_Geodemographic\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexa\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E90183C-1AE0-4814-96EF-D5660A227B8C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF47D6E6-C468-4B72-B6EE-B791014CC853}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26790" yWindow="4590" windowWidth="22490" windowHeight="15310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11570" yWindow="2200" windowWidth="26500" windowHeight="15970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="acs_variables_initial" sheetId="1" r:id="rId1"/>
@@ -5689,9 +5689,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N852"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A266" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L287" sqref="L287"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A149" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I175" sqref="I175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10879,7 +10879,7 @@
         <v>0</v>
       </c>
       <c r="I173" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -10908,7 +10908,7 @@
         <v>0</v>
       </c>
       <c r="I174" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
